--- a/Standard_Library_TestCase_FolderUtil .xlsx
+++ b/Standard_Library_TestCase_FolderUtil .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884"/>
+    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerref(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022"))), "Design"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">unitTest002
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -210,10 +206,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerref(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022"))), "asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">unitTest003
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -224,19 +216,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerref(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber(""))), "asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">unitTest004
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerref(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022"))), null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">unitTest005
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -251,10 +235,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerref(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022"))), ""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">unitTest001
 </t>
     <phoneticPr fontId="34" type="noConversion"/>
@@ -292,26 +272,6 @@
   </si>
   <si>
     <t>getFolder(WTContainer container, String path)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022")), "Design"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022")), "asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("")), "asd"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022")), null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(getFolder(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("0000000022")), ""));</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
@@ -342,30 +302,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>createFolderByContainerRef(WTContainerRef containerRef, String path)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainerRef(CommonUtil.getWTContainerrefByPart(PartUtil.getPartByNumber("GC000027")), "testFolder_1"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainerRef(CommonUtil.getWTContainerrefByPart(PartUtil.getPartByNumber("GC000027")), "Design"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainerRef(CommonUtil.getWTContainerrefByPart(PartUtil.getPartByNumber("asd")), "testFolder_3"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainerRef(CommonUtil.getWTContainerrefByPart(PartUtil.getPartByNumber("GC000027")), ""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainerRef(null, null));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1:input the validate "containerRef" is exist,path is not exist
 </t>
     <phoneticPr fontId="11"/>
@@ -426,22 +362,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>System.out.println(createFolderByContainer(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("GC000027")), ""));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainer(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("asd")), "testFolder_3"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainer(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("GC000027")), "Design"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.println(createFolderByContainer(CommonUtil.getWTContainerByPart(PartUtil.getPartByNumber("GC000027")), "testFolder_1"));</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>wt.folder.SubFolder:214318&lt;testFolder-1&gt;</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
@@ -597,6 +517,86 @@
   <si>
     <t>FolderUtil</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainerref(PartUtil.getPartByNumber("0000000022")), "Design"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainerref(PartUtil.getPartByNumber("0000000022")), "asd"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainerref(PartUtil.getPartByNumber("")), "asd"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainerref(PartUtil.getPartByNumber("0000000022")), null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainerref(PartUtil.getPartByNumber("0000000022")), ""));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainer(PartUtil.getPartByNumber("0000000022")), "Design"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainer(PartUtil.getPartByNumber("0000000022")), "asd"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainer(PartUtil.getPartByNumber("")), "asd"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainer(PartUtil.getPartByNumber("0000000022")), null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(getFolder(WCUtil.getWTContainer(PartUtil.getPartByNumber("0000000022")), ""));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>createFolderByContainerRef(WTContainerRef containerRef, String path)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainerRef(WCUtil.getWTContainerref(PartUtil.getPartByNumber("GC000027")), "testFolder_1"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainerRef(WCUtil.getWTContainerref(PartUtil.getPartByNumber("GC000027")), "Design"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainerRef(WCUtil.getWTContainerref(PartUtil.getPartByNumber("asd")), "testFolder_3"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainerRef(WCUtil.getWTContainerref(PartUtil.getPartByNumber("GC000027")), ""));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainerRef(WCUtil.getWTContainerref(null), null));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainer(WCUtil.getWTContainer(PartUtil.getPartByNumber("GC000027")), "testFolder-1"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainer(WCUtil.getWTContainer(PartUtil.getPartByNumber("GC000027")), "Design"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainer(WCUtil.getWTContainer(PartUtil.getPartByNumber("asd")), "testFolder-3"));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println(createFolderByContainer(WCUtil.getWTContainer(PartUtil.getPartByNumber("GC000027")), ""));</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1741,20 +1741,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2174,7 +2174,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2185,14 +2185,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="4"/>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6"/>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2341,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2377,7 +2377,7 @@
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2455,7 +2455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="108">
+    <row r="7" spans="1:11" ht="90">
       <c r="B7" s="57">
         <v>1</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="33" t="s">
@@ -2473,15 +2473,15 @@
         <v>29</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I7" s="72"/>
       <c r="J7" s="74"/>
       <c r="K7" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="108">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90">
       <c r="B8" s="57"/>
       <c r="C8" s="67" t="s">
         <v>13</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>29</v>
@@ -2502,10 +2502,10 @@
       <c r="I8" s="72"/>
       <c r="J8" s="74"/>
       <c r="K8" s="73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="72">
       <c r="B9" s="57"/>
       <c r="C9" s="67"/>
       <c r="D9" s="30" t="s">
@@ -2513,21 +2513,21 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="74"/>
       <c r="K9" s="73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="72">
       <c r="B10" s="57"/>
       <c r="C10" s="67" t="s">
         <v>13</v>
@@ -2537,40 +2537,40 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I10" s="72"/>
       <c r="J10" s="74"/>
       <c r="K10" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="72">
       <c r="B11" s="57"/>
       <c r="C11" s="67"/>
       <c r="D11" s="30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I11" s="72"/>
       <c r="J11" s="74"/>
       <c r="K11" s="73" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90">
@@ -2578,39 +2578,39 @@
         <v>2</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I12" s="72"/>
       <c r="J12" s="74"/>
       <c r="K12" s="73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="90">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="72">
       <c r="B13" s="57"/>
       <c r="C13" s="67"/>
       <c r="D13" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>23</v>
@@ -2618,7 +2618,7 @@
       <c r="I13" s="72"/>
       <c r="J13" s="74"/>
       <c r="K13" s="73" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -2629,10 +2629,10 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H14" s="69" t="s">
         <v>23</v>
@@ -2640,51 +2640,51 @@
       <c r="I14" s="35"/>
       <c r="J14" s="51"/>
       <c r="K14" s="73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="90">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="72">
       <c r="B15" s="57"/>
       <c r="C15" s="59"/>
       <c r="D15" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="51"/>
       <c r="K15" s="73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="90">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="72">
       <c r="B16" s="57"/>
       <c r="C16" s="59"/>
       <c r="D16" s="30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="60"/>
       <c r="F16" s="33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="51"/>
       <c r="K16" s="73" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="108">
@@ -2692,227 +2692,227 @@
         <v>3</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="33" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="51"/>
       <c r="K17" s="73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="108">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="90">
       <c r="B18" s="57"/>
       <c r="C18" s="59"/>
       <c r="D18" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="33" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="51"/>
       <c r="K18" s="73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="108.75" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="90.75" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="58"/>
       <c r="D19" s="59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="61" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>41</v>
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="63"/>
       <c r="K19" s="64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="108">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="90">
       <c r="B20" s="31"/>
       <c r="C20" s="36"/>
       <c r="D20" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="33" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="48"/>
       <c r="K20" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="54">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="72">
       <c r="B21" s="31"/>
       <c r="C21" s="36"/>
       <c r="D21" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="48"/>
       <c r="K21" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="90">
       <c r="B22" s="31">
         <v>4</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="33" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="51"/>
       <c r="K22" s="73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="108">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="90">
       <c r="B23" s="31"/>
       <c r="C23" s="59"/>
       <c r="D23" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="33" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I23" s="62"/>
       <c r="J23" s="51"/>
       <c r="K23" s="73" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="90.75" thickBot="1">
       <c r="B24" s="31"/>
       <c r="C24" s="58"/>
       <c r="D24" s="59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="61" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>41</v>
       </c>
       <c r="I24" s="62"/>
       <c r="J24" s="63"/>
       <c r="K24" s="64" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="90">
       <c r="B25" s="31"/>
       <c r="C25" s="36"/>
       <c r="D25" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="48"/>
       <c r="K25" s="49" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="54">
       <c r="B26" s="31"/>
       <c r="C26" s="36"/>
       <c r="D26" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="48"/>
       <c r="K26" s="49" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="72">
@@ -2920,113 +2920,113 @@
         <v>5</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E27" s="60"/>
       <c r="F27" s="33" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="51"/>
       <c r="K27" s="73" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="72">
       <c r="B28" s="31"/>
       <c r="C28" s="59"/>
       <c r="D28" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E28" s="60"/>
       <c r="F28" s="33" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="51"/>
       <c r="K28" s="73" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="72.75" thickBot="1">
       <c r="B29" s="65"/>
       <c r="C29" s="58"/>
       <c r="D29" s="59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="61" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>41</v>
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="63"/>
       <c r="K29" s="64" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="72">
       <c r="B30" s="65"/>
       <c r="C30" s="36"/>
       <c r="D30" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="33" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="48"/>
       <c r="K30" s="49" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="72">
       <c r="B31" s="65"/>
       <c r="C31" s="36"/>
       <c r="D31" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="33" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="48"/>
       <c r="K31" s="49" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="72">
@@ -3034,61 +3034,61 @@
         <v>6</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="68"/>
       <c r="F32" s="33" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H32" s="71" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I32" s="72"/>
       <c r="J32" s="75"/>
       <c r="K32" s="76" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="54.75" thickBot="1">
       <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="37"/>
       <c r="K33" s="38" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="54.75" thickBot="1">
       <c r="B34" s="65"/>
       <c r="C34" s="36"/>
       <c r="D34" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="33" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>14</v>
@@ -3096,7 +3096,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="37"/>
       <c r="K34" s="38" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="72.75" thickBot="1">
@@ -3104,91 +3104,91 @@
         <v>7</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="37"/>
       <c r="K35" s="38" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="57" thickBot="1">
       <c r="B36" s="31"/>
       <c r="C36" s="36"/>
       <c r="D36" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="37"/>
       <c r="K36" s="38" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="72">
       <c r="B37" s="31"/>
       <c r="C37" s="36"/>
       <c r="D37" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="33" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="48"/>
       <c r="K37" s="49" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="54">
       <c r="B38" s="31"/>
       <c r="C38" s="36"/>
       <c r="D38" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="33" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="48"/>
       <c r="K38" s="49" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="56.25">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="C39" s="66"/>
       <c r="D39" s="67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E39" s="68"/>
       <c r="F39" s="69" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H39" s="71" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I39" s="72"/>
-      <c r="J39" s="82"/>
+      <c r="J39" s="79"/>
       <c r="K39" s="49" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="18.75">
@@ -3696,7 +3696,7 @@
       <c r="K79" s="43"/>
     </row>
     <row r="80" spans="2:11" ht="18.75">
-      <c r="B80" s="81"/>
+      <c r="B80" s="78"/>
       <c r="C80" s="41"/>
       <c r="D80" s="42"/>
       <c r="E80" s="40"/>
@@ -3744,7 +3744,7 @@
       <c r="K83" s="43"/>
     </row>
     <row r="84" spans="2:11" ht="18.75">
-      <c r="B84" s="81"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
       <c r="E84" s="40"/>
@@ -3792,7 +3792,7 @@
       <c r="K87" s="43"/>
     </row>
     <row r="88" spans="2:11" ht="18.75">
-      <c r="B88" s="81"/>
+      <c r="B88" s="78"/>
       <c r="C88" s="41"/>
       <c r="D88" s="42"/>
       <c r="E88" s="40"/>
@@ -3840,7 +3840,7 @@
       <c r="K91" s="43"/>
     </row>
     <row r="92" spans="2:11" ht="18.75">
-      <c r="B92" s="81"/>
+      <c r="B92" s="78"/>
       <c r="C92" s="41"/>
       <c r="D92" s="42"/>
       <c r="E92" s="40"/>
@@ -3876,7 +3876,7 @@
       <c r="K94" s="43"/>
     </row>
     <row r="95" spans="2:11" ht="18.75">
-      <c r="B95" s="81"/>
+      <c r="B95" s="78"/>
       <c r="C95" s="41"/>
       <c r="D95" s="42"/>
       <c r="E95" s="40"/>
